--- a/Status Reports/10-12_Status_Report.xlsx
+++ b/Status Reports/10-12_Status_Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Project Name</t>
   </si>
@@ -171,15 +171,6 @@
     <t>PropOwner</t>
   </si>
   <si>
-    <t>Generate more detailed architecture (through requirements doc), get more familiar with appropriate software (Flutter, Firebase), download software team computers, review front end main view sketch</t>
-  </si>
-  <si>
-    <t>Review and implement other UI main view design sketches, Gain more experience in Dart and Flutter, Start implementing Vendor Profile Creation Page</t>
-  </si>
-  <si>
-    <t>Design Other Views</t>
-  </si>
-  <si>
     <t>Design Wireframes for all Views</t>
   </si>
   <si>
@@ -187,6 +178,27 @@
   </si>
   <si>
     <t>Unknown how much time the integration will take from the views-&gt;states-&gt;database until we gain familiarity and approach that problem</t>
+  </si>
+  <si>
+    <t>Implement Job History Page</t>
+  </si>
+  <si>
+    <t>Implement Vendor Profile Page</t>
+  </si>
+  <si>
+    <t>Implement Database Design</t>
+  </si>
+  <si>
+    <t>Redux State Layer</t>
+  </si>
+  <si>
+    <t>Generate more detailed projected timeline (through the Gantt and Pert charts), get more familiar with appropriate software (Flutter, Firebase), Organize existing Flutter files into a manageable manner, Implement the basic Firebase mainframe, Design wireframes for 3 of the 4 views</t>
+  </si>
+  <si>
+    <t>Owner Vendor Search Screen (waiting for other views to finish before implementation)</t>
+  </si>
+  <si>
+    <t>Complete wireframes/design to implement later on front end, Finish designing database to begun the implemenation of states (between front end and database), Start implementing Owner Vendor Search screen</t>
   </si>
 </sst>
 </file>
@@ -635,10 +647,212 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,216 +865,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="181">
     <dxf>
       <fill>
         <patternFill>
@@ -871,14 +883,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -899,6 +932,174 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -920,6 +1121,90 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -927,6 +1212,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -941,6 +1289,188 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -948,6 +1478,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -955,6 +1548,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -969,6 +1597,160 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1011,6 +1793,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1088,55 +1905,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -1152,6 +1920,97 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1558,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,634 +2435,677 @@
     <col min="14" max="14" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82">
+      <c r="G1" s="11"/>
+      <c r="H1" s="12">
         <v>43378</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="80" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="70" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="73"/>
+      <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="76" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="78">
+      <c r="L3" s="26"/>
+      <c r="M3" s="27">
         <v>43382</v>
       </c>
-      <c r="N3" s="79"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="26"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="23">
+        <v>43382</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="3">
         <v>0.8</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="37">
-        <v>43375</v>
-      </c>
-      <c r="N4" s="38"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="23">
+        <v>43390</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="26"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="62" t="s">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="37">
-        <v>43385</v>
-      </c>
-      <c r="N5" s="38"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="23">
+        <v>43402</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="51"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="37">
-        <v>43388</v>
-      </c>
-      <c r="N6" s="38"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="3">
         <v>0.1</v>
       </c>
-      <c r="K7" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="63"/>
-      <c r="M7" s="37">
-        <v>43388</v>
-      </c>
-      <c r="N7" s="38"/>
+      <c r="K7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="23">
+        <v>43402</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="51"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="37">
-        <v>43395</v>
-      </c>
-      <c r="N8" s="38"/>
+        <v>0.3</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="23">
+        <v>43402</v>
+      </c>
+      <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="63"/>
-      <c r="M9" s="37">
-        <v>43423</v>
-      </c>
-      <c r="N9" s="38"/>
+        <v>0.7</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="23">
+        <v>43391</v>
+      </c>
+      <c r="N9" s="24"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
+      <c r="K10" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="51"/>
+      <c r="M10" s="34">
+        <v>43398</v>
+      </c>
+      <c r="N10" s="35"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="56"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="44"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="56"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="56"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="44"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="56"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="44"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="46" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="5">
         <v>7</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
+      <c r="G19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="71"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="5">
         <v>7</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="5">
         <v>6</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="36"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="5">
         <v>7.2</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
+      <c r="G22" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="71"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="5">
         <v>4.7</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="74"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="5">
         <v>6</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="62"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="65"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="68"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="7">
         <f>SUM(E19:E27)</f>
         <v>37.9</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="17"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M3:N3"/>
+  <mergeCells count="78">
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:N27"/>
+    <mergeCell ref="G22:N24"/>
+    <mergeCell ref="G19:N21"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="F17:N17"/>
     <mergeCell ref="M10:N10"/>
@@ -2220,226 +3122,588 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="F28:N28"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:N27"/>
-    <mergeCell ref="G22:N24"/>
-    <mergeCell ref="G19:N21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:L10">
-    <cfRule type="containsText" dxfId="59" priority="98" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="180" priority="227" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L10">
-    <cfRule type="containsText" dxfId="58" priority="96" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="179" priority="225" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="57" priority="89" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="178" priority="218" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="90" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="177" priority="219" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="55" priority="87" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="176" priority="216" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="88" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="175" priority="217" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="53" priority="84" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="174" priority="213" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="85" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="173" priority="214" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="86" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="172" priority="215" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22">
-    <cfRule type="cellIs" dxfId="50" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="211" operator="greaterThan">
       <formula>252250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="212" operator="greaterThan">
       <formula>252250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="containsText" dxfId="48" priority="70" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="169" priority="199" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="71" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="168" priority="200" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="72" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="167" priority="201" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="45" priority="68" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="166" priority="197" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="69" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="165" priority="198" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="43" priority="66" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="164" priority="195" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="67" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="163" priority="196" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="37" priority="46" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="162" priority="175" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="47" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="161" priority="176" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="48" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="160" priority="177" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="34" priority="44" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="159" priority="173" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="45" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="158" priority="174" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="32" priority="42" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="157" priority="171" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="43" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="156" priority="172" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="155" priority="153" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="154" priority="151" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="153" priority="149" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="152" priority="150" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="151" priority="147" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="150" priority="148" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="149" priority="146" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="148" priority="144" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="147" priority="142" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="146" priority="143" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="145" priority="141" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="144" priority="139" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="143" priority="137" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="142" priority="138" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="130" priority="129" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="129" priority="127" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="128" priority="125" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="127" priority="126" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Delayed">
-      <formula>NOT(ISERROR(SEARCH("Delayed",K4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="delays">
-      <formula>NOT(ISERROR(SEARCH("delays",K4)))</formula>
+    <cfRule type="containsText" dxfId="126" priority="124" operator="containsText" text="Ontrack">
+      <formula>NOT(ISERROR(SEARCH("Ontrack",K4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:L4">
+    <cfRule type="containsText" dxfId="125" priority="122" operator="containsText" text="Track">
+      <formula>NOT(ISERROR(SEARCH("Track",K4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:L4">
+    <cfRule type="containsText" dxfId="124" priority="120" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="121" operator="containsText" text="Delays">
+      <formula>NOT(ISERROR(SEARCH("Delays",K4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="114" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:L7">
+    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Delays">
+      <formula>NOT(ISERROR(SEARCH("Delays",K7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:L8">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:L8">
+    <cfRule type="containsText" dxfId="107" priority="106" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:L8">
+    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="105" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:L8">
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Delays">
+      <formula>NOT(ISERROR(SEARCH("Delays",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9">
+    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="Delays">
+      <formula>NOT(ISERROR(SEARCH("Delays",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:P3">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Ontrack">
+      <formula>NOT(ISERROR(SEARCH("Ontrack",O3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:P3">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Track">
+      <formula>NOT(ISERROR(SEARCH("Track",O3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:P3">
+    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",O3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="Delays">
+      <formula>NOT(ISERROR(SEARCH("Delays",O3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:P3">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Ontrack">
+      <formula>NOT(ISERROR(SEARCH("Ontrack",O3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:P3">
+    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="Track">
+      <formula>NOT(ISERROR(SEARCH("Track",O3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:P3">
+    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",O3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Delays">
+      <formula>NOT(ISERROR(SEARCH("Delays",O3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Ontrack">
+      <formula>NOT(ISERROR(SEARCH("Ontrack",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Track">
+      <formula>NOT(ISERROR(SEARCH("Track",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:P5">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:P6">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Ontrack">
+      <formula>NOT(ISERROR(SEARCH("Ontrack",O6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:P6">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Track">
+      <formula>NOT(ISERROR(SEARCH("Track",O6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:P6">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",O6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",O6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",O6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Ontrack">
+      <formula>NOT(ISERROR(SEARCH("Ontrack",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Track">
+      <formula>NOT(ISERROR(SEARCH("Track",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="delays">
+      <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:P4">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",O4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Delays">
+      <formula>NOT(ISERROR(SEARCH("Delays",O4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Ontrack">
+      <formula>NOT(ISERROR(SEARCH("Ontrack",O7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Track">
+      <formula>NOT(ISERROR(SEARCH("Track",O7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Possible">
+      <formula>NOT(ISERROR(SEARCH("Possible",O7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",O7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="complete">
+      <formula>NOT(ISERROR(SEARCH("complete",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,7 +3712,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{35FBBCCA-91CB-49DD-B56E-AFC9A5A32B16}">
+          <x14:cfRule type="containsText" priority="226" operator="containsText" id="{35FBBCCA-91CB-49DD-B56E-AFC9A5A32B16}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,K6)))</xm:f>
             <xm:f>Sheet1!$D$2</xm:f>
             <x14:dxf>
@@ -2462,7 +3726,7 @@
           <xm:sqref>K6:L10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{24A11E36-9E0F-4974-9A94-5CE86F9F5D60}">
+          <x14:cfRule type="containsText" priority="152" operator="containsText" id="{24A11E36-9E0F-4974-9A94-5CE86F9F5D60}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,K5)))</xm:f>
             <xm:f>Sheet1!$D$2</xm:f>
             <x14:dxf>
@@ -2476,7 +3740,7 @@
           <xm:sqref>K5:L5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{6014B49E-5BFA-447D-8B62-CC700D09AD87}">
+          <x14:cfRule type="containsText" priority="145" operator="containsText" id="{6014B49E-5BFA-447D-8B62-CC700D09AD87}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,K3)))</xm:f>
             <xm:f>Sheet1!$D$2</xm:f>
             <x14:dxf>
@@ -2490,7 +3754,7 @@
           <xm:sqref>K3:L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{6D095A42-38DC-4E91-8316-BE59ADB505CF}">
+          <x14:cfRule type="containsText" priority="140" operator="containsText" id="{6D095A42-38DC-4E91-8316-BE59ADB505CF}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,K3)))</xm:f>
             <xm:f>Sheet1!$D$2</xm:f>
             <x14:dxf>
@@ -2504,7 +3768,7 @@
           <xm:sqref>K3:L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{410CA4C5-B683-49BD-8DE7-2BE2FA138204}">
+          <x14:cfRule type="containsText" priority="128" operator="containsText" id="{0BB7FFBC-B774-49E7-9FA1-A8B0E711E063}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,K4)))</xm:f>
             <xm:f>Sheet1!$D$2</xm:f>
             <x14:dxf>
@@ -2517,6 +3781,104 @@
           </x14:cfRule>
           <xm:sqref>K4:L4</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="123" operator="containsText" id="{B248147F-BAC8-4113-9C84-F2AC9BFA7828}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,K4)))</xm:f>
+            <xm:f>Sheet1!$D$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K4:L4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{639A7738-8174-4788-BC73-6652D635CCD1}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,O3)))</xm:f>
+            <xm:f>Sheet1!$D$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O3:P3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{9F444E04-8589-466A-8685-CB98A3AB32EB}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,O3)))</xm:f>
+            <xm:f>Sheet1!$D$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O3:P3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{852A1FE8-75B8-4925-A9D2-13912EF909B7}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,O5)))</xm:f>
+            <xm:f>Sheet1!$D$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O5:P5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{4AE86459-756E-441D-89DA-683E65AA2BE4}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,O6)))</xm:f>
+            <xm:f>Sheet1!$D$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O6:P6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{47768123-F59F-4E6B-81E8-1CB617DC682D}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,O4)))</xm:f>
+            <xm:f>Sheet1!$D$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O4:P4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{CE4FC2E6-6939-47E0-B843-6E5701E06F90}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet1!$D$2,O7)))</xm:f>
+            <xm:f>Sheet1!$D$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O7:P7</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2525,7 +3887,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$D$2:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:L10</xm:sqref>
+          <xm:sqref>K3:L10 O3:P7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/Status Reports/10-12_Status_Report.xlsx
+++ b/Status Reports/10-12_Status_Report.xlsx
@@ -647,6 +647,188 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -685,194 +867,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="181">
+  <dxfs count="149">
     <dxf>
       <fill>
         <patternFill>
@@ -883,6 +883,83 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1044,13 +1121,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1114,13 +1184,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1205,13 +1268,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1275,20 +1331,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1429,98 +1471,133 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1535,307 +1612,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2420,7 +2196,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,643 +2212,695 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12">
-        <v>43378</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="74">
+        <v>43385</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="81"/>
+      <c r="M2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="20"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="8" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27">
+      <c r="L3" s="11"/>
+      <c r="M3" s="66">
         <v>43382</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="25" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="26"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="8" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="23">
+      <c r="L4" s="11"/>
+      <c r="M4" s="47">
         <v>43382</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25" t="s">
+      <c r="N4" s="48"/>
+      <c r="O4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="26"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="8" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="3">
         <v>0.8</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="23">
+      <c r="L5" s="11"/>
+      <c r="M5" s="47">
         <v>43390</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25" t="s">
+      <c r="N5" s="48"/>
+      <c r="O5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="26"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="8" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="3">
         <v>0.7</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="23">
+      <c r="L6" s="11"/>
+      <c r="M6" s="47">
         <v>43402</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="50" t="s">
+      <c r="N6" s="48"/>
+      <c r="O6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="51"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="8" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="3">
         <v>0.1</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="23">
+      <c r="L7" s="11"/>
+      <c r="M7" s="47">
         <v>43402</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="50" t="s">
+      <c r="N7" s="48"/>
+      <c r="O7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="51"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="8" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
       <c r="J8" s="3">
         <v>0.3</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="23">
+      <c r="L8" s="11"/>
+      <c r="M8" s="47">
         <v>43402</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="8" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="3">
         <v>0.7</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="23">
+      <c r="L9" s="11"/>
+      <c r="M9" s="47">
         <v>43391</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="21" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="34">
+      <c r="L10" s="9"/>
+      <c r="M10" s="51">
         <v>43398</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="42" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42" t="s">
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="44"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="44"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="60"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="44"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="60"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="44"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="60"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="31" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="52" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="55"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="5">
         <v>7</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="71"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="5">
         <v>7</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="74"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="37"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="5">
         <v>6</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="77"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="5">
         <v>7.2</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="5">
         <v>4.7</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="74"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="5">
         <v>6</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="77"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="62"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="65"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="68"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="7">
         <f>SUM(E19:E27)</f>
         <v>37.9</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A12:E16"/>
+    <mergeCell ref="F12:I16"/>
+    <mergeCell ref="J12:N16"/>
+    <mergeCell ref="A3:F10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:N27"/>
+    <mergeCell ref="G22:N24"/>
+    <mergeCell ref="G19:N21"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
@@ -3089,620 +2917,568 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F28:N28"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:N27"/>
-    <mergeCell ref="G22:N24"/>
-    <mergeCell ref="G19:N21"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A12:E16"/>
-    <mergeCell ref="F12:I16"/>
-    <mergeCell ref="J12:N16"/>
-    <mergeCell ref="A3:F10"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:L10">
-    <cfRule type="containsText" dxfId="180" priority="227" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="148" priority="227" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L10">
-    <cfRule type="containsText" dxfId="179" priority="225" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="147" priority="225" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="178" priority="218" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="146" priority="218" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="219" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="145" priority="219" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="176" priority="216" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="144" priority="216" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="217" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="143" priority="217" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="174" priority="213" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="142" priority="213" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="214" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="141" priority="214" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="215" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="140" priority="215" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22">
-    <cfRule type="cellIs" dxfId="171" priority="211" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="211" operator="greaterThan">
       <formula>252250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="212" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="212" operator="greaterThan">
       <formula>252250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="containsText" dxfId="169" priority="199" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="137" priority="199" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="200" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="136" priority="200" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="201" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="135" priority="201" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="166" priority="197" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="134" priority="197" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="198" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="133" priority="198" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="164" priority="195" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="132" priority="195" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="196" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="131" priority="196" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="162" priority="175" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="130" priority="175" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="176" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="129" priority="176" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="177" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="128" priority="177" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="159" priority="173" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="127" priority="173" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="174" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="126" priority="174" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="157" priority="171" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="125" priority="171" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="172" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="124" priority="172" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="155" priority="153" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="123" priority="153" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="154" priority="151" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="122" priority="151" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="153" priority="149" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="121" priority="149" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="150" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="120" priority="150" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="151" priority="147" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="119" priority="147" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="148" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="118" priority="148" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="149" priority="146" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="117" priority="146" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="148" priority="144" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="116" priority="144" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="147" priority="142" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="115" priority="142" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="143" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="114" priority="143" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="145" priority="141" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="113" priority="141" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="144" priority="139" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="112" priority="139" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="143" priority="137" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="111" priority="137" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="138" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="110" priority="138" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="130" priority="129" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="109" priority="129" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="129" priority="127" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="108" priority="127" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="128" priority="125" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="107" priority="125" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="126" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="106" priority="126" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="126" priority="124" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="105" priority="124" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="125" priority="122" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="104" priority="122" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="124" priority="120" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="103" priority="120" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="121" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="102" priority="121" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="101" priority="118" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="100" priority="119" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="116" priority="115" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="99" priority="115" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="116" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="98" priority="116" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="97" priority="117" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="113" priority="113" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="114" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="95" priority="114" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="111" priority="111" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="94" priority="111" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="112" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="93" priority="112" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="91" priority="110" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="107" priority="106" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="90" priority="106" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="89" priority="107" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="88" priority="108" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="87" priority="104" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="105" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="86" priority="105" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="85" priority="102" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="84" priority="103" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="83" priority="77" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="82" priority="78" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="75" priority="75" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="81" priority="75" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="76" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="80" priority="76" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="79" priority="72" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="78" priority="73" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="77" priority="74" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="76" priority="70" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="75" priority="71" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="74" priority="68" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="73" priority="69" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="72" priority="67" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="64" priority="63" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="70" priority="63" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="69" priority="64" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="68" priority="62" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="61" priority="60" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="67" priority="60" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="58" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="64" priority="57" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="63" priority="55" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="61" priority="53" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="60" priority="54" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="59" priority="50" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="58" priority="51" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="57" priority="48" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="55" priority="46" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="54" priority="47" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="50" priority="41" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="49" priority="42" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="48" priority="40" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="41" priority="29" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="40" priority="30" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="37" priority="28" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="33" priority="24" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="29" priority="18" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="28" priority="19" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
